--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09476766666666668</v>
+        <v>0.09476766666666665</v>
       </c>
       <c r="H2">
         <v>0.284303</v>
       </c>
       <c r="I2">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="J2">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N2">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q2">
-        <v>0.2482868641755556</v>
+        <v>0.545024645611111</v>
       </c>
       <c r="R2">
-        <v>2.23458177758</v>
+        <v>4.9052218105</v>
       </c>
       <c r="S2">
-        <v>0.01498608330610187</v>
+        <v>0.01729926686287431</v>
       </c>
       <c r="T2">
-        <v>0.01498608330610187</v>
+        <v>0.01729926686287431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09476766666666668</v>
+        <v>0.09476766666666665</v>
       </c>
       <c r="H3">
         <v>0.284303</v>
       </c>
       <c r="I3">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="J3">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q3">
-        <v>0.05400319690388889</v>
+        <v>0.05400319690388888</v>
       </c>
       <c r="R3">
-        <v>0.486028772135</v>
+        <v>0.4860287721349999</v>
       </c>
       <c r="S3">
-        <v>0.003259521643582701</v>
+        <v>0.001714079761734863</v>
       </c>
       <c r="T3">
-        <v>0.003259521643582701</v>
+        <v>0.001714079761734863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09476766666666668</v>
+        <v>0.09476766666666665</v>
       </c>
       <c r="H4">
         <v>0.284303</v>
       </c>
       <c r="I4">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="J4">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N4">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q4">
-        <v>0.1047356141496667</v>
+        <v>0.1369725101951111</v>
       </c>
       <c r="R4">
-        <v>0.9426205273470001</v>
+        <v>1.232752591756</v>
       </c>
       <c r="S4">
-        <v>0.006321625769347389</v>
+        <v>0.004347553869029466</v>
       </c>
       <c r="T4">
-        <v>0.006321625769347389</v>
+        <v>0.004347553869029466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>2.187396333333333</v>
       </c>
       <c r="H5">
-        <v>6.562188999999999</v>
+        <v>6.562189</v>
       </c>
       <c r="I5">
-        <v>0.5670527964351189</v>
+        <v>0.5392086761288135</v>
       </c>
       <c r="J5">
-        <v>0.567052796435119</v>
+        <v>0.5392086761288134</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N5">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q5">
-        <v>5.730876314837777</v>
+        <v>12.58008087905556</v>
       </c>
       <c r="R5">
-        <v>51.57788683353999</v>
+        <v>113.2207279115</v>
       </c>
       <c r="S5">
-        <v>0.3459038808045828</v>
+        <v>0.3992960282361366</v>
       </c>
       <c r="T5">
-        <v>0.3459038808045829</v>
+        <v>0.3992960282361365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>2.187396333333333</v>
       </c>
       <c r="H6">
-        <v>6.562188999999999</v>
+        <v>6.562189</v>
       </c>
       <c r="I6">
-        <v>0.5670527964351189</v>
+        <v>0.5392086761288135</v>
       </c>
       <c r="J6">
-        <v>0.567052796435119</v>
+        <v>0.5392086761288134</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q6">
-        <v>1.246484154889444</v>
+        <v>1.246484154889445</v>
       </c>
       <c r="R6">
         <v>11.218357394005</v>
       </c>
       <c r="S6">
-        <v>0.07523521410178687</v>
+        <v>0.03956382928628661</v>
       </c>
       <c r="T6">
-        <v>0.07523521410178688</v>
+        <v>0.03956382928628661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>2.187396333333333</v>
       </c>
       <c r="H7">
-        <v>6.562188999999999</v>
+        <v>6.562189</v>
       </c>
       <c r="I7">
-        <v>0.5670527964351189</v>
+        <v>0.5392086761288135</v>
       </c>
       <c r="J7">
-        <v>0.567052796435119</v>
+        <v>0.5392086761288134</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N7">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q7">
-        <v>2.417473241862333</v>
+        <v>3.161554748647556</v>
       </c>
       <c r="R7">
-        <v>21.757259176761</v>
+        <v>28.453992737828</v>
       </c>
       <c r="S7">
-        <v>0.1459137015287491</v>
+        <v>0.1003488186063904</v>
       </c>
       <c r="T7">
-        <v>0.1459137015287491</v>
+        <v>0.1003488186063904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.575318666666667</v>
+        <v>1.774514666666667</v>
       </c>
       <c r="H8">
-        <v>4.725956</v>
+        <v>5.323544</v>
       </c>
       <c r="I8">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="J8">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N8">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q8">
-        <v>4.127261391795556</v>
+        <v>10.20552960044444</v>
       </c>
       <c r="R8">
-        <v>37.14535252616</v>
+        <v>91.84976640399999</v>
       </c>
       <c r="S8">
-        <v>0.2491129897221344</v>
+        <v>0.3239269663431387</v>
       </c>
       <c r="T8">
-        <v>0.2491129897221344</v>
+        <v>0.3239269663431387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.575318666666667</v>
+        <v>1.774514666666667</v>
       </c>
       <c r="H9">
-        <v>4.725956</v>
+        <v>5.323544</v>
       </c>
       <c r="I9">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="J9">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.709545</v>
       </c>
       <c r="O9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q9">
-        <v>0.8976927166688888</v>
+        <v>1.011204225275556</v>
       </c>
       <c r="R9">
-        <v>8.07923445002</v>
+        <v>9.10083802748</v>
       </c>
       <c r="S9">
-        <v>0.05418288188524048</v>
+        <v>0.03209596462613852</v>
       </c>
       <c r="T9">
-        <v>0.05418288188524048</v>
+        <v>0.03209596462613853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.575318666666667</v>
+        <v>1.774514666666667</v>
       </c>
       <c r="H10">
-        <v>4.725956</v>
+        <v>5.323544</v>
       </c>
       <c r="I10">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="J10">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N10">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q10">
-        <v>1.741015409982667</v>
+        <v>2.564795956476445</v>
       </c>
       <c r="R10">
-        <v>15.669138689844</v>
+        <v>23.083163608288</v>
       </c>
       <c r="S10">
-        <v>0.1050841012384741</v>
+        <v>0.08140749240827076</v>
       </c>
       <c r="T10">
-        <v>0.1050841012384741</v>
+        <v>0.08140749240827076</v>
       </c>
     </row>
   </sheetData>
